--- a/Vizsgaremek_munkamenet.xlsx
+++ b/Vizsgaremek_munkamenet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bujdoso.balint\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minec\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DC649C2-41ED-44E0-84DB-3A5151E6DF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1760C7-DBE9-4584-9589-D88F641D6FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D6196F6-7BF2-4472-84F1-499F220C9EB8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D6196F6-7BF2-4472-84F1-499F220C9EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Feladat száma</t>
   </si>
@@ -107,15 +107,6 @@
     <t>Main page megtervezése, design elemek</t>
   </si>
   <si>
-    <t>Main page adatbázisból adatok behúzása (frontend)</t>
-  </si>
-  <si>
-    <t>Main page adatbázisból adatok behúzása (backend)</t>
-  </si>
-  <si>
-    <t>Alap funkciók létrehozása a főoldalhoz</t>
-  </si>
-  <si>
     <t>Adatbázis megtervezése, ábra….</t>
   </si>
   <si>
@@ -125,20 +116,29 @@
     <t>-</t>
   </si>
   <si>
-    <t>Login page megdesignelése (backend)</t>
-  </si>
-  <si>
-    <t>Login page megvalósítása (frontend)</t>
-  </si>
-  <si>
     <t>Első ciklus vége (2024.12.20)</t>
+  </si>
+  <si>
+    <t>API összekötés</t>
+  </si>
+  <si>
+    <t>Login/Register page</t>
+  </si>
+  <si>
+    <t>About page megtervezése</t>
+  </si>
+  <si>
+    <t>Weboldal színek beállításai</t>
+  </si>
+  <si>
+    <t>Home page design elkezdése a tervek szerint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +159,19 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -203,8 +216,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -232,18 +244,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -258,12 +265,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -279,7 +296,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -597,21 +614,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24176174-65B8-4DE0-80DA-06632CB27EA9}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="66.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" customWidth="1"/>
-    <col min="4" max="4" width="55.88671875" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="66.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="55.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +639,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -631,179 +648,181 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
